--- a/experiment/nonconvex/MitsosBarton2006Ex313/Experimentos_Generador/MitsosBarton2006Ex313__C_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex313/Experimentos_Generador/MitsosBarton2006Ex313__C_Stationarygenerator_alpha_zero.xlsx
@@ -60,22 +60,22 @@
     <t>-1 - x</t>
   </si>
   <si>
-    <t>-1.8522320616237735</t>
+    <t>-2.8</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.10379143254523569</t>
+    <t>0.73</t>
   </si>
   <si>
     <t>-1 + x</t>
   </si>
   <si>
-    <t>-0.14776793837622637</t>
-  </si>
-  <si>
-    <t>0.5815339895515225</t>
+    <t>0.7999999999999998</t>
+  </si>
+  <si>
+    <t>0.64</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -90,37 +90,37 @@
     <t>-1 + y</t>
   </si>
   <si>
-    <t>0.5440267961277625</t>
+    <t>1.6500000000000004</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.07674479715761028</t>
-  </si>
-  <si>
-    <t>0.6304842008663022</t>
-  </si>
-  <si>
-    <t>0.4956384162386672</t>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>4.622313460180284</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>-1 - y</t>
   </si>
   <si>
-    <t>-2.5440267961277625</t>
+    <t>-3.6500000000000004</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.3039754280005046</t>
-  </si>
-  <si>
-    <t>0.7478293440119714</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>-9.775891877472372</t>
+  </si>
+  <si>
+    <t>-9.417582308694728</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +129,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>0.8522320616237736</t>
-  </si>
-  <si>
-    <t>1.5440267961277625</t>
+    <t>1.7999999999999998</t>
+  </si>
+  <si>
+    <t>2.6500000000000004</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-0.4696627997808519</t>
+    <t>1.8119999999999976</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-1.4777425570062868</t>
-  </si>
-  <si>
-    <t>1.1173451431456694</t>
+    <t>-0.91</t>
+  </si>
+  <si>
+    <t>-13.398205337652655</t>
   </si>
   <si>
     <t>vec_alpha</t>

--- a/experiment/nonconvex/MitsosBarton2006Ex313/Experimentos_Generador/MitsosBarton2006Ex313__C_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex313/Experimentos_Generador/MitsosBarton2006Ex313__C_Stationarygenerator_alpha_zero.xlsx
@@ -57,25 +57,25 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>-1 - x</t>
-  </si>
-  <si>
-    <t>-2.8</t>
+    <t>2.3000000000000003 - x</t>
+  </si>
+  <si>
+    <t>-3.3000000000000003</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>-1 + x</t>
-  </si>
-  <si>
-    <t>0.7999999999999998</t>
-  </si>
-  <si>
-    <t>0.64</t>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>-2.3000000000000003 + x</t>
+  </si>
+  <si>
+    <t>1.3000000000000003</t>
+  </si>
+  <si>
+    <t>0.17</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,40 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-1 + y</t>
-  </si>
-  <si>
-    <t>1.6500000000000004</t>
+    <t>-4.449999999999999 + y</t>
+  </si>
+  <si>
+    <t>3.4499999999999993</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>4.622313460180284</t>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>1.7000000000000002</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>4.449999999999999 - y</t>
+  </si>
+  <si>
+    <t>-5.449999999999999</t>
+  </si>
+  <si>
+    <t>J_0_LP_v</t>
+  </si>
+  <si>
+    <t>0.81</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>-1 - y</t>
-  </si>
-  <si>
-    <t>-3.6500000000000004</t>
-  </si>
-  <si>
-    <t>J_0_LP_v</t>
-  </si>
-  <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>-9.775891877472372</t>
-  </si>
-  <si>
-    <t>-9.417582308694728</t>
+    <t>5.1</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +129,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>1.7999999999999998</t>
-  </si>
-  <si>
-    <t>2.6500000000000004</t>
+    <t>2.3000000000000003</t>
+  </si>
+  <si>
+    <t>4.449999999999999</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>1.8119999999999976</t>
+    <t>1.9220000000000041</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-0.91</t>
-  </si>
-  <si>
-    <t>-13.398205337652655</t>
+    <t>-0.66</t>
+  </si>
+  <si>
+    <t>-0.7000000000000002</t>
   </si>
   <si>
     <t>vec_alpha</t>

--- a/experiment/nonconvex/MitsosBarton2006Ex313/Experimentos_Generador/MitsosBarton2006Ex313__C_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex313/Experimentos_Generador/MitsosBarton2006Ex313__C_Stationarygenerator_alpha_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -57,25 +57,25 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>2.3000000000000003 - x</t>
-  </si>
-  <si>
-    <t>-3.3000000000000003</t>
+    <t>1.0499999999999998 - x</t>
+  </si>
+  <si>
+    <t>-2.05</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>-2.3000000000000003 + x</t>
-  </si>
-  <si>
-    <t>1.3000000000000003</t>
-  </si>
-  <si>
-    <t>0.17</t>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>-1.05 + x</t>
+  </si>
+  <si>
+    <t>0.050000000000000044</t>
+  </si>
+  <si>
+    <t>0.72</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,31 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-4.449999999999999 + y</t>
-  </si>
-  <si>
-    <t>3.4499999999999993</t>
+    <t>-2.85 + y</t>
+  </si>
+  <si>
+    <t>1.85</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>1.7000000000000002</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>4.449999999999999 - y</t>
-  </si>
-  <si>
-    <t>-5.449999999999999</t>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.85 - y</t>
+  </si>
+  <si>
+    <t>-3.85</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.81</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5.1</t>
+    <t>0.88</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +120,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>2.3000000000000003</t>
-  </si>
-  <si>
-    <t>4.449999999999999</t>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>2.85</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>1.9220000000000041</t>
+    <t>-1.4248750000000001</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-0.66</t>
-  </si>
-  <si>
-    <t>-0.7000000000000002</t>
+    <t>-1.48</t>
+  </si>
+  <si>
+    <t>1.0</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -629,27 +620,27 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -667,18 +658,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -696,12 +687,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -719,17 +710,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -747,7 +738,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
